--- a/story/主线剧情/main/level_main_08-03_beg.xlsx
+++ b/story/主线剧情/main/level_main_08-03_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="294">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">晖洁：
 </t>
   </si>
@@ -599,6 +605,586 @@
   </si>
   <si>
     <t xml:space="preserve">[name="アリーナ"] 待って！　タルラ！！　このままじゃ村全体に燃え広がっちゃう！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hui-chieh:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From where I left off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I ran for a very long time. Ran into a small village.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn’t think too much about it at the time. I only wanted to find somewhere to hide. I didn’t think I’d actually find somewhere to stay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I think that old couple thought of me as a daughter. Since their own sons and daughters had probably long since lost their lives to Ursus’s countless wars.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They even kept my secret for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m sure I could’ve spent a lifetime repaying their kindness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I regret that I never did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 13th
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] During our previous routine inspection, one of our people was assaulted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] Every household must now submit to a search, both for Infected and the attacker. Should we find them, we will execute them on the spot, and the household that harbored them will be punished accordingly. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] If you don’t want a hard labor sentence, turn them in. No one will come to harm if you do your civic duty, and the offenders and Infected will meet their proper end. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] Now, we’ll start from the first household.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It looks like the day came after all. There’s no chance I’ll make it through this one. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Don’t go out there, Talulah! Hide behind the shed... they won’t look there! We’ll tell them you were scared of what was coming and ran away! No one’d blame you for it!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But they might hurt you for it. I owe you better than that. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I’ve left you some gold coins... from Victoria. Spend them sparingly, and they’ll have you warm and well fed for the rest of your lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Talulah, Talulah! Where are you going? My Talulah... you can’t, you can’t go to them! Those black-hearted patrolling bugs eat people alive!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And I can’t just stand by and let them torture the men and women of this village. I have to see this through. I’ll lure them away, give them a wake-up call, let them know what they’ve wrought.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I know what’s right. I’m not letting them punish these people. I’m not letting them murder anyone else. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I still remember how the boy next door was beaten to death for chucking a stone. I’ll never forget. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Talulah... Talulah! You can’t... that’s enough! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Who?! Who’s at the door...!? Is it the patrolmen?! Go away!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Ma’am, it’s me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Alina! Come in, come in! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] What’s wrong? What’s happened? Is there news?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] ...Someone told.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] What? Told what?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] The Patrol Unit knows there’s an Infected in our village.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] How could... this can’t be... ahh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] I don’t know who it was, but we all know what happens to those who harbor Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Ma’am, my father passed early, and you took such good care of my mother, you and your husband both. You’re like grandparents to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] And at this point, I can’t really hide anything...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] —Wait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Miss, where did the Mister go?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] Bloody old fart, what are you doing here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] I committed a crime!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] A confession? Ah, yeah, I remember.  An old geezer got in our guy’s way. Judging by your limp, you were one of the thugs who attacked him!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Yup!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] ...Not that you look worth the trouble. Go take a bloody hike. No point in dirtying our hands over a miserable little wretch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Hold it. Sir, look at my skin here. What’s that look like to you? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] Infected! You’re the Infected? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Are you serious?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] I realized the moment I helped you change clothes... Talulah, we’ve known you were Infected for a long time now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] How—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] The old man worked the mines, and came back after he’d caught Oripathy himself! You’ve seen how he never takes off that jacket of his... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] He’s going to go in your place, Talulah...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] No!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But how could he have been...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] You can’t trust the people here like that! The villagers will say whatever they need to, for money or to save their own skins! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] For the last two years, Talulah, we’ve been truly happy to have you! You’re a good girl... a good girl! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] We don’t have long left to live, but Talulah, even if you’re ill, you’ve still got years yet! You need to live, Talulah, that’s what’s right... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Talulah, don’t go! For heaven’s sakes, don’t go...! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Take me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Take me then, officer!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Look at my skin! I’m the bloody diseased one! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] If you don’t believe me, then take a look at this!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] A knife? Put that down. You can’t touch us, old man.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] No, officer, watch my Arts!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The elderly man slices open his own wrist, but no red flows onto the snow. It is instead as mist, scattering into the air.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Look, look... Officer! I’m an Infected, tried and true! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] I believe you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] Thank you for your cooperation, Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Nnf... nnf...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Talulah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Talulah! Come back! Don’t!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Is that... fire?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] What?! Why is the house on— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Talulah! Did you— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Don’t! Talulah! They'll destroy the whole village! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">훼이지에에게
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지난번 그 일에 대한 이야기를 계속할게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">난 한참을 도망친 후에야 어떤 마을에 도착했어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그때만 해도 이것저것 따질 상황이 아니었어, 그저 숨을 수만 있으면 다행이라고 생각했거든. 마음 편히 쉴 수 있는 곳을 찾을 수 있을 거라곤 꿈에도 생각하지 못했어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">노부부는 나를 딸처럼 대해줬어. 우르수스에서 벌어진 수많은 전란에서 그들 부부는 오래전에 자식들을 잃어버렸던 것 같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">두 사람은 내 비밀마저 감싸줬어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">평생 갚지 못할 과분한 사랑도 주셨지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">두 분께 제대로 보답하지 못한 게 무척 아쉬워.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1월 13일
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 지난번 정기 수색에서 대원 하나가 습격을 받았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 이제부터 모든 주민은 수색에 응해야 한다. 감염자는 물론, 우리를 습격한 대상을 발견하는 즉시 사살한다. 그들을 숨겨준 마을도 처벌한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 강제 노역이 싫다면 그들을 신고해라. 명예로운 행동으로 피해를 보는 자가 없을 것이다. 단, 범죄자와 감염자는 응당한 대가를 치르게 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 이제부터 수색을 시작한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 결국 그날이 왔네요. 저들은 절 어떻게든 찾아낼 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 탈룰라, 나가지 말고 움막 뒤에 숨거라…… 거기라면 못 찾을 게다! 처벌을 받을까 봐 네가 도망쳤다고 둘러대마, 누구도 널 탓하지 않을 게다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그러면 두 분이 다치게 될 거예요, 이런 식으로 두 분께 보답하려던 게 아니에요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 금화를 놓고 갈게요…… 빅토리아 금화니 아껴 쓰면 노후를 편하게 보내실 수 있을 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 탈룰라, 탈룰라! 어딜 가려는 게냐? ……안 된다, 저놈들에게 맞서면 안 돼! 저 시꺼먼 놈들은 사람을 죽여도 눈 하나 깜짝하지 않는 지독한 것들이야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그래서 저놈들이 마을 사람들을 더는 괴롭히지 못하게 제가 막을 거예요. 놈들을 끌어낸 뒤 자신들이 무슨 짓을 저질렀는지 알도록 혼쭐을 내주겠어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 제 실력은 저도 알아요, 하지만 놈들이 복수를 핑계로 무고한 사람들을 해치는 걸 더는 두고 볼 순 없어요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 아직도 기억에 생생한걸요. 돌멩이를 던졌다는 이유로 이웃집 꼬맹이가 죽었던 그 일…… 전 절대 잊지 못할 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 탈룰라…… 그런 말 마라…… 그렇게 말하면 안 돼!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 누구요? 누가 문을 두드리는…… 설마 감시팀?! 안 돼, 안 된다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 할머님, 저예요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 알리나로구나! 어서 들어오거라, 어서!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 왜 그러니? 무슨 일이라도 생긴 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] ……누군가 밀고했어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 뭐? 뭐라고? 밀고라니, 무슨……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 마을에 감염자가 있단 걸 감시팀이 알게 됐어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 어, 어떻게 그런……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 저자들이 어디서 정보를 입수했는지 모르겠지만, 감염자를 숨기면 어떻게 되는지 모두 잘 알고 있죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 아버지께서 일찍 세상을 떠난 뒤에 저와 엄마는 두 분께 많이 의지하며 살았어요. 전 두 분을 제 친할아버지, 친할머니라고 생각해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 이렇게 된 이상, 더는 숨길 수 없겠네요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……잠깐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 할머니, 할아버지 어디 가셨죠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 영감탱이, 무슨 짓이야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 날 잡아가시오!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 자수하는 건가? 맞아, 그러고 보니 우리 대원을 어떤 늙은이가 막았다고 하던데 다리를 저는 걸 보니 습격했던 놈 중 하나가 분명해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 그렇소!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] ……쥐어짜도 기름 한 방울 안 나올 것 같은데, 노망 부리지 말고 썩 꺼져. 그 자식도 멍청하군, 성가시게 왜 이딴 늙은이를 건드려선……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 그뿐인 줄 아시오? 자, 이걸 보시오. 이게 뭐 같소이까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 가, 감염자! 감염자로군!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 지금 그게 무슨 말이세요?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 네가 옷을 갈아입을 때 눈치챘지…… 네가 감염자란 걸 나와 영감 모두 오래전부터 알고 있었단다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그렇다면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 영감이 돈을 벌겠다며 광산에서 일하다가 광석병에 걸리고 말았지. 겉옷을 벗지 않으려고 한 것도 모두 그 때문이란다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 영감은 널 대신해 죄를 뒤집어쓰러 간 거란다, 탈룰라……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 안 돼요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 설마 할아버지가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 마을 사람들을 믿지 마라! 돈을 위해서라면, 살아남으려고 무슨 짓이든 할 것들이니까!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 지난 2년 동안 정말 행복했단다. 탈룰라, 넌 정말 사랑스러운 아이였어……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 우리야 살날이 얼마 안 남았지만 넌 병에 걸렸어도 우리보단 오래 살 수 있을 테니 부디 잘 살아야 한다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 탈룰라, 안 돼! 가면 안 돼……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 날 잡아가시오.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 날 잡아가라니까!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 내 몸을 보시오, 그 병에 걸렸소이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 못 믿겠다면 이걸 보시구려!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 칼? 당장 내려놔. 영감 실력으로 우리 상대가 될 것 같아?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 그런 게 아니라…… 내 아츠를 보시오!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">노인이 칼로 손목을 긋자, 붉은 피가 눈 덮인 땅에 스며들지 않고 안개처럼 공기 중으로 흩어진다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 봤소이까?…… 내가 진짜 감염자요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 사실이로군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"] 협조해줘서 고맙다, 감염자.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 윽…… 으윽……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할아버지"] 탈룰라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 탈룰라, 돌아와! 가면 안 돼!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 이건…… 불?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 무슨 짓이야? 왜 집에 불을 지르는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 탈룰라! 너 설마……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 가지 마, 탈룰라! 이렇게 되면 마을 전체가 피해를 보게 될 거야!
 </t>
   </si>
 </sst>
@@ -957,602 +1543,1046 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
